--- a/biology/Médecine/Neurotechnologie/Neurotechnologie.xlsx
+++ b/biology/Médecine/Neurotechnologie/Neurotechnologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La neurotechnologie désigne toute technologie ayant une influence fondamentale sur la manière dont sont compris le cerveau et ses fonctions supérieures, les différents aspects de la conscience et de la pensée. Elle inclut également les technologies visant à réparer, voire améliorer le fonctionnement du cerveau ainsi que celles qui permettent aux chercheurs et cliniciens de visualiser le cerveau.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,13 +551,15 @@
           <t>Technologies actuelles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Aujourd'hui, la neurotechnologie est en cours de développement.    
 Neuralink est une startup américaine de neurotechnologie qui travaille actuellement sur cette technologie depuis sa création en 2016.
 Son créateur est Elon Musk, le célèbre entrepreneur, investisseur et businessman milliardaire de nationalité (sud-africano-canado-américain).
 Elle est spécialisée dans le développement des implants cérébraux d'interfaces directes neuronales.
-Les travaux sont  en cours à travers des recherches, des tests et des analyses[1].
+Les travaux sont  en cours à travers des recherches, des tests et des analyses.
 </t>
         </is>
       </c>
@@ -572,7 +588,9 @@
           <t>Technologies futures</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La neurotechnologie est une future technologie scientifique qui a pour but d'améliorer les capacités futurs des humains à travers plusieurs domaines qui dominent notre société. 
 Entre 2030 et 2100, de nombreuses découvertes et avancées, seront positifs, à l'émergence de cette nouvelle technologie.
@@ -614,6 +632,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
